--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel10/field_36ha_100ha_18%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel10/field_36ha_100ha_18%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -2852,28 +2852,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1757.008438698805</v>
+        <v>1878.879193489566</v>
       </c>
       <c r="AB2" t="n">
-        <v>2404.016459569375</v>
+        <v>2570.765402832337</v>
       </c>
       <c r="AC2" t="n">
-        <v>2174.580502726365</v>
+        <v>2325.415160877922</v>
       </c>
       <c r="AD2" t="n">
-        <v>1757008.438698805</v>
+        <v>1878879.193489566</v>
       </c>
       <c r="AE2" t="n">
-        <v>2404016.459569375</v>
+        <v>2570765.402832337</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.57262721672098e-07</v>
+        <v>1.401134297400679e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.06655092592592</v>
       </c>
       <c r="AH2" t="n">
-        <v>2174580.502726365</v>
+        <v>2325415.160877922</v>
       </c>
     </row>
     <row r="3">
@@ -2958,28 +2958,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1029.453486914925</v>
+        <v>1114.737439864652</v>
       </c>
       <c r="AB3" t="n">
-        <v>1408.543677079523</v>
+        <v>1525.232943967802</v>
       </c>
       <c r="AC3" t="n">
-        <v>1274.11424544252</v>
+        <v>1379.666852473396</v>
       </c>
       <c r="AD3" t="n">
-        <v>1029453.486914925</v>
+        <v>1114737.439864652</v>
       </c>
       <c r="AE3" t="n">
-        <v>1408543.677079523</v>
+        <v>1525232.943967802</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.06943205502524e-06</v>
+        <v>1.978729294539846e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.21006944444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>1274114.24544252</v>
+        <v>1379666.852473396</v>
       </c>
     </row>
     <row r="4">
@@ -3064,28 +3064,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>858.7951470921673</v>
+        <v>944.0790105333429</v>
       </c>
       <c r="AB4" t="n">
-        <v>1175.041407619437</v>
+        <v>1291.730552038168</v>
       </c>
       <c r="AC4" t="n">
-        <v>1062.897104857211</v>
+        <v>1168.44960110686</v>
       </c>
       <c r="AD4" t="n">
-        <v>858795.1470921673</v>
+        <v>944079.0105333428</v>
       </c>
       <c r="AE4" t="n">
-        <v>1175041.407619437</v>
+        <v>1291730.552038168</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.191222210483843e-06</v>
+        <v>2.204072968558306e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.75752314814815</v>
       </c>
       <c r="AH4" t="n">
-        <v>1062897.104857211</v>
+        <v>1168449.60110686</v>
       </c>
     </row>
     <row r="5">
@@ -3170,28 +3170,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>785.6705308912838</v>
+        <v>858.7588832273323</v>
       </c>
       <c r="AB5" t="n">
-        <v>1074.989081703003</v>
+        <v>1174.991789799721</v>
       </c>
       <c r="AC5" t="n">
-        <v>972.3936325019204</v>
+        <v>1062.85222249257</v>
       </c>
       <c r="AD5" t="n">
-        <v>785670.5308912838</v>
+        <v>858758.8832273323</v>
       </c>
       <c r="AE5" t="n">
-        <v>1074989.081703003</v>
+        <v>1174991.789799721</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.258393236284426e-06</v>
+        <v>2.32835695263317e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.0775462962963</v>
       </c>
       <c r="AH5" t="n">
-        <v>972393.6325019203</v>
+        <v>1062852.22249257</v>
       </c>
     </row>
     <row r="6">
@@ -3276,28 +3276,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>723.4536146956739</v>
+        <v>796.6272183777429</v>
       </c>
       <c r="AB6" t="n">
-        <v>989.8611521475472</v>
+        <v>1089.980504896914</v>
       </c>
       <c r="AC6" t="n">
-        <v>895.3901930654371</v>
+        <v>985.9542953067985</v>
       </c>
       <c r="AD6" t="n">
-        <v>723453.6146956739</v>
+        <v>796627.2183777429</v>
       </c>
       <c r="AE6" t="n">
-        <v>989861.1521475471</v>
+        <v>1089980.504896914</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.300250396224274e-06</v>
+        <v>2.405803657330329e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.6869212962963</v>
       </c>
       <c r="AH6" t="n">
-        <v>895390.193065437</v>
+        <v>985954.2953067985</v>
       </c>
     </row>
     <row r="7">
@@ -3382,28 +3382,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>683.8610726862466</v>
+        <v>756.8640841677234</v>
       </c>
       <c r="AB7" t="n">
-        <v>935.6888894705711</v>
+        <v>1035.574830445091</v>
       </c>
       <c r="AC7" t="n">
-        <v>846.3880551071036</v>
+        <v>936.7410220658139</v>
       </c>
       <c r="AD7" t="n">
-        <v>683861.0726862466</v>
+        <v>756864.0841677234</v>
       </c>
       <c r="AE7" t="n">
-        <v>935688.8894705711</v>
+        <v>1035574.830445091</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.330816101475204e-06</v>
+        <v>2.462358214587226e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.41782407407407</v>
       </c>
       <c r="AH7" t="n">
-        <v>846388.0551071035</v>
+        <v>936741.0220658139</v>
       </c>
     </row>
     <row r="8">
@@ -3488,28 +3488,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>659.4861480468666</v>
+        <v>732.4891595283433</v>
       </c>
       <c r="AB8" t="n">
-        <v>902.3380422331903</v>
+        <v>1002.22398320771</v>
       </c>
       <c r="AC8" t="n">
-        <v>816.2201659218503</v>
+        <v>906.5731328805607</v>
       </c>
       <c r="AD8" t="n">
-        <v>659486.1480468665</v>
+        <v>732489.1595283432</v>
       </c>
       <c r="AE8" t="n">
-        <v>902338.0422331903</v>
+        <v>1002223.98320771</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.347359395554316e-06</v>
+        <v>2.49296763990668e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.27893518518519</v>
       </c>
       <c r="AH8" t="n">
-        <v>816220.1659218502</v>
+        <v>906573.1328805607</v>
       </c>
     </row>
     <row r="9">
@@ -3594,28 +3594,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>658.2401543572096</v>
+        <v>731.2431658386862</v>
       </c>
       <c r="AB9" t="n">
-        <v>900.6332186976396</v>
+        <v>1000.51915967216</v>
       </c>
       <c r="AC9" t="n">
-        <v>814.6780483517975</v>
+        <v>905.0310153105079</v>
       </c>
       <c r="AD9" t="n">
-        <v>658240.1543572096</v>
+        <v>731243.1658386862</v>
       </c>
       <c r="AE9" t="n">
-        <v>900633.2186976395</v>
+        <v>1000519.159672159</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.34830472664455e-06</v>
+        <v>2.494716749924935e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.27025462962963</v>
       </c>
       <c r="AH9" t="n">
-        <v>814678.0483517975</v>
+        <v>905031.0153105078</v>
       </c>
     </row>
   </sheetData>
@@ -3891,28 +3891,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1301.78306539958</v>
+        <v>1407.485882393443</v>
       </c>
       <c r="AB2" t="n">
-        <v>1781.157020695302</v>
+        <v>1925.784278185473</v>
       </c>
       <c r="AC2" t="n">
-        <v>1611.165894509721</v>
+        <v>1741.990129530661</v>
       </c>
       <c r="AD2" t="n">
-        <v>1301783.06539958</v>
+        <v>1407485.882393443</v>
       </c>
       <c r="AE2" t="n">
-        <v>1781157.020695301</v>
+        <v>1925784.278185473</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.98230346254699e-07</v>
+        <v>1.712165666005313e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>1611165.894509721</v>
+        <v>1741990.129530661</v>
       </c>
     </row>
     <row r="3">
@@ -3997,28 +3997,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>838.0209880189113</v>
+        <v>920.19638074734</v>
       </c>
       <c r="AB3" t="n">
-        <v>1146.617286684193</v>
+        <v>1259.053284337693</v>
       </c>
       <c r="AC3" t="n">
-        <v>1037.185742130522</v>
+        <v>1138.891005972886</v>
       </c>
       <c r="AD3" t="n">
-        <v>838020.9880189113</v>
+        <v>920196.3807473399</v>
       </c>
       <c r="AE3" t="n">
-        <v>1146617.286684193</v>
+        <v>1259053.284337693</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.186611564298608e-06</v>
+        <v>2.261864774162102e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.24652777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>1037185.742130522</v>
+        <v>1138891.005972886</v>
       </c>
     </row>
     <row r="4">
@@ -4103,28 +4103,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>715.9577417109836</v>
+        <v>786.4547631612664</v>
       </c>
       <c r="AB4" t="n">
-        <v>979.604968035317</v>
+        <v>1076.06210289268</v>
       </c>
       <c r="AC4" t="n">
-        <v>886.1128447702333</v>
+        <v>973.3642460552485</v>
       </c>
       <c r="AD4" t="n">
-        <v>715957.7417109836</v>
+        <v>786454.7631612665</v>
       </c>
       <c r="AE4" t="n">
-        <v>979604.968035317</v>
+        <v>1076062.10289268</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.297715481197589e-06</v>
+        <v>2.473645986705553e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.11516203703704</v>
       </c>
       <c r="AH4" t="n">
-        <v>886112.8447702334</v>
+        <v>973364.2460552485</v>
       </c>
     </row>
     <row r="5">
@@ -4209,28 +4209,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>642.9414434121506</v>
+        <v>713.5237162084541</v>
       </c>
       <c r="AB5" t="n">
-        <v>879.7008474511176</v>
+        <v>976.2746269611295</v>
       </c>
       <c r="AC5" t="n">
-        <v>795.7434332382759</v>
+        <v>883.1003467740034</v>
       </c>
       <c r="AD5" t="n">
-        <v>642941.4434121506</v>
+        <v>713523.7162084541</v>
       </c>
       <c r="AE5" t="n">
-        <v>879700.8474511176</v>
+        <v>976274.6269611295</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.356282729323311e-06</v>
+        <v>2.585284200457064e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.59143518518519</v>
       </c>
       <c r="AH5" t="n">
-        <v>795743.4332382759</v>
+        <v>883100.3467740034</v>
       </c>
     </row>
     <row r="6">
@@ -4315,28 +4315,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>604.7454597896842</v>
+        <v>675.1571403853953</v>
       </c>
       <c r="AB6" t="n">
-        <v>827.4394175709891</v>
+        <v>923.7797853061543</v>
       </c>
       <c r="AC6" t="n">
-        <v>748.4697608765294</v>
+        <v>835.6155391296058</v>
       </c>
       <c r="AD6" t="n">
-        <v>604745.4597896843</v>
+        <v>675157.1403853954</v>
       </c>
       <c r="AE6" t="n">
-        <v>827439.4175709891</v>
+        <v>923779.7853061543</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.387522216959945e-06</v>
+        <v>2.644831485157545e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.33101851851852</v>
       </c>
       <c r="AH6" t="n">
-        <v>748469.7608765295</v>
+        <v>835615.5391296059</v>
       </c>
     </row>
     <row r="7">
@@ -4421,28 +4421,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>602.8605967159504</v>
+        <v>673.2722773116615</v>
       </c>
       <c r="AB7" t="n">
-        <v>824.8604647592164</v>
+        <v>921.2008324943813</v>
       </c>
       <c r="AC7" t="n">
-        <v>746.1369397015292</v>
+        <v>833.2827179546057</v>
       </c>
       <c r="AD7" t="n">
-        <v>602860.5967159504</v>
+        <v>673272.2773116615</v>
       </c>
       <c r="AE7" t="n">
-        <v>824860.4647592164</v>
+        <v>921200.8324943813</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.389478080533716e-06</v>
+        <v>2.648559662982271e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.31365740740741</v>
       </c>
       <c r="AH7" t="n">
-        <v>746136.9397015292</v>
+        <v>833282.7179546057</v>
       </c>
     </row>
   </sheetData>
@@ -4718,28 +4718,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>571.8583103296584</v>
+        <v>645.0170669134229</v>
       </c>
       <c r="AB2" t="n">
-        <v>782.4417688011454</v>
+        <v>882.5408070956044</v>
       </c>
       <c r="AC2" t="n">
-        <v>707.766624550683</v>
+        <v>798.3123511202015</v>
       </c>
       <c r="AD2" t="n">
-        <v>571858.3103296583</v>
+        <v>645017.0669134229</v>
       </c>
       <c r="AE2" t="n">
-        <v>782441.7688011454</v>
+        <v>882540.8070956044</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.351548249820672e-06</v>
+        <v>2.878444067975247e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.98032407407407</v>
       </c>
       <c r="AH2" t="n">
-        <v>707766.624550683</v>
+        <v>798312.3511202015</v>
       </c>
     </row>
     <row r="3">
@@ -4824,28 +4824,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>471.9777099974947</v>
+        <v>534.7583649446401</v>
       </c>
       <c r="AB3" t="n">
-        <v>645.7807250055822</v>
+        <v>731.6799867912879</v>
       </c>
       <c r="AC3" t="n">
-        <v>584.1483189699886</v>
+        <v>661.8494757712377</v>
       </c>
       <c r="AD3" t="n">
-        <v>471977.7099974948</v>
+        <v>534758.3649446401</v>
       </c>
       <c r="AE3" t="n">
-        <v>645780.7250055822</v>
+        <v>731679.9867912879</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.48504198114323e-06</v>
+        <v>3.162750779991103e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.81134259259259</v>
       </c>
       <c r="AH3" t="n">
-        <v>584148.3189699886</v>
+        <v>661849.4757712377</v>
       </c>
     </row>
   </sheetData>
@@ -5121,28 +5121,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>794.6577595424262</v>
+        <v>871.375080519808</v>
       </c>
       <c r="AB2" t="n">
-        <v>1087.285804432042</v>
+        <v>1192.253827522629</v>
       </c>
       <c r="AC2" t="n">
-        <v>983.516773272258</v>
+        <v>1078.466795562625</v>
       </c>
       <c r="AD2" t="n">
-        <v>794657.7595424262</v>
+        <v>871375.080519808</v>
       </c>
       <c r="AE2" t="n">
-        <v>1087285.804432042</v>
+        <v>1192253.827522629</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.168057958212929e-06</v>
+        <v>2.371561489791749e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.36631944444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>983516.773272258</v>
+        <v>1078466.795562625</v>
       </c>
     </row>
     <row r="3">
@@ -5227,28 +5227,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>558.7979517813185</v>
+        <v>635.4298423955776</v>
       </c>
       <c r="AB3" t="n">
-        <v>764.5720100529525</v>
+        <v>869.4231435517935</v>
       </c>
       <c r="AC3" t="n">
-        <v>691.6023304970537</v>
+        <v>786.4466189742556</v>
       </c>
       <c r="AD3" t="n">
-        <v>558797.9517813185</v>
+        <v>635429.8423955776</v>
       </c>
       <c r="AE3" t="n">
-        <v>764572.0100529524</v>
+        <v>869423.1435517935</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.407527238722422e-06</v>
+        <v>2.857766921338429e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.9212962962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>691602.3304970537</v>
+        <v>786446.6189742555</v>
       </c>
     </row>
     <row r="4">
@@ -5333,28 +5333,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>518.1071726453314</v>
+        <v>583.9379489225335</v>
       </c>
       <c r="AB4" t="n">
-        <v>708.897090888615</v>
+        <v>798.9696632399604</v>
       </c>
       <c r="AC4" t="n">
-        <v>641.2409474775206</v>
+        <v>722.7171199413031</v>
       </c>
       <c r="AD4" t="n">
-        <v>518107.1726453314</v>
+        <v>583937.9489225334</v>
       </c>
       <c r="AE4" t="n">
-        <v>708897.090888615</v>
+        <v>798969.6632399603</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.455838672644536e-06</v>
+        <v>2.955855834992676e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.52777777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>641240.9474775207</v>
+        <v>722717.119941303</v>
       </c>
     </row>
   </sheetData>
@@ -5630,28 +5630,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>450.1251751761206</v>
+        <v>510.318853612061</v>
       </c>
       <c r="AB2" t="n">
-        <v>615.8811227971821</v>
+        <v>698.2407691909084</v>
       </c>
       <c r="AC2" t="n">
-        <v>557.1022928320031</v>
+        <v>631.6016501664019</v>
       </c>
       <c r="AD2" t="n">
-        <v>450125.1751761207</v>
+        <v>510318.853612061</v>
       </c>
       <c r="AE2" t="n">
-        <v>615881.1227971821</v>
+        <v>698240.7691909084</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.48378548513423e-06</v>
+        <v>3.304100456416845e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.27719907407407</v>
       </c>
       <c r="AH2" t="n">
-        <v>557102.2928320031</v>
+        <v>631601.6501664019</v>
       </c>
     </row>
     <row r="3">
@@ -5736,28 +5736,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>451.7246259164003</v>
+        <v>511.9183043523406</v>
       </c>
       <c r="AB3" t="n">
-        <v>618.0695618628192</v>
+        <v>700.4292082565455</v>
       </c>
       <c r="AC3" t="n">
-        <v>559.0818703447094</v>
+        <v>633.581227679108</v>
       </c>
       <c r="AD3" t="n">
-        <v>451724.6259164003</v>
+        <v>511918.3043523406</v>
       </c>
       <c r="AE3" t="n">
-        <v>618069.5618628192</v>
+        <v>700429.2082565455</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.486115115234797e-06</v>
+        <v>3.309288087618044e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.25983796296296</v>
       </c>
       <c r="AH3" t="n">
-        <v>559081.8703447094</v>
+        <v>633581.227679108</v>
       </c>
     </row>
   </sheetData>
@@ -6033,28 +6033,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1408.81544478466</v>
+        <v>1515.625266386967</v>
       </c>
       <c r="AB2" t="n">
-        <v>1927.60344410529</v>
+        <v>2073.745354138329</v>
       </c>
       <c r="AC2" t="n">
-        <v>1743.635676808306</v>
+        <v>1875.830008059251</v>
       </c>
       <c r="AD2" t="n">
-        <v>1408815.444784661</v>
+        <v>1515625.266386967</v>
       </c>
       <c r="AE2" t="n">
-        <v>1927603.44410529</v>
+        <v>2073745.354138329</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.606564625850456e-07</v>
+        <v>1.627297970621247e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.10185185185185</v>
       </c>
       <c r="AH2" t="n">
-        <v>1743635.676808306</v>
+        <v>1875830.008059251</v>
       </c>
     </row>
     <row r="3">
@@ -6139,28 +6139,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>881.5057834661341</v>
+        <v>964.4758035586849</v>
       </c>
       <c r="AB3" t="n">
-        <v>1206.115102228863</v>
+        <v>1319.638344098441</v>
       </c>
       <c r="AC3" t="n">
-        <v>1091.005169665318</v>
+        <v>1193.693912661734</v>
       </c>
       <c r="AD3" t="n">
-        <v>881505.7834661341</v>
+        <v>964475.8035586849</v>
       </c>
       <c r="AE3" t="n">
-        <v>1206115.102228863</v>
+        <v>1319638.344098441</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.15570791175402e-06</v>
+        <v>2.185170531084458e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.48090277777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>1091005.169665318</v>
+        <v>1193693.912661734</v>
       </c>
     </row>
     <row r="4">
@@ -6245,28 +6245,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>751.4229062677344</v>
+        <v>822.6010368872649</v>
       </c>
       <c r="AB4" t="n">
-        <v>1028.129970794499</v>
+        <v>1125.519029265642</v>
       </c>
       <c r="AC4" t="n">
-        <v>930.0066893713481</v>
+        <v>1018.101072788407</v>
       </c>
       <c r="AD4" t="n">
-        <v>751422.9062677345</v>
+        <v>822601.0368872648</v>
       </c>
       <c r="AE4" t="n">
-        <v>1028129.970794499</v>
+        <v>1125519.029265642</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.269690378522399e-06</v>
+        <v>2.400684438110118e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.26851851851852</v>
       </c>
       <c r="AH4" t="n">
-        <v>930006.6893713481</v>
+        <v>1018101.072788407</v>
       </c>
     </row>
     <row r="5">
@@ -6351,28 +6351,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>674.8570331422288</v>
+        <v>746.1204151077798</v>
       </c>
       <c r="AB5" t="n">
-        <v>923.3691653362564</v>
+        <v>1020.874868460049</v>
       </c>
       <c r="AC5" t="n">
-        <v>835.2441081533264</v>
+        <v>923.444003821098</v>
       </c>
       <c r="AD5" t="n">
-        <v>674857.0331422288</v>
+        <v>746120.4151077798</v>
       </c>
       <c r="AE5" t="n">
-        <v>923369.1653362564</v>
+        <v>1020874.868460049</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.331069694590397e-06</v>
+        <v>2.516738218936407e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.70428240740741</v>
       </c>
       <c r="AH5" t="n">
-        <v>835244.1081533263</v>
+        <v>923444.003821098</v>
       </c>
     </row>
     <row r="6">
@@ -6457,28 +6457,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>628.4366617872677</v>
+        <v>699.5294515522265</v>
       </c>
       <c r="AB6" t="n">
-        <v>859.8547653261495</v>
+        <v>957.1270566750952</v>
       </c>
       <c r="AC6" t="n">
-        <v>777.7914333371639</v>
+        <v>865.7801937222844</v>
       </c>
       <c r="AD6" t="n">
-        <v>628436.6617872677</v>
+        <v>699529.4515522266</v>
       </c>
       <c r="AE6" t="n">
-        <v>859854.7653261495</v>
+        <v>957127.0566750952</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.369351004874912e-06</v>
+        <v>2.589119129609645e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.37731481481481</v>
       </c>
       <c r="AH6" t="n">
-        <v>777791.4333371639</v>
+        <v>865780.1937222844</v>
       </c>
     </row>
     <row r="7">
@@ -6563,28 +6563,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>615.7283964169119</v>
+        <v>686.8211861818708</v>
       </c>
       <c r="AB7" t="n">
-        <v>842.4667559973293</v>
+        <v>939.739047346275</v>
       </c>
       <c r="AC7" t="n">
-        <v>762.0629112144618</v>
+        <v>850.0516715995824</v>
       </c>
       <c r="AD7" t="n">
-        <v>615728.3964169119</v>
+        <v>686821.1861818708</v>
       </c>
       <c r="AE7" t="n">
-        <v>842466.7559973293</v>
+        <v>939739.0473462751</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.378934792822371e-06</v>
+        <v>2.607239807668486e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.29918981481481</v>
       </c>
       <c r="AH7" t="n">
-        <v>762062.9112144618</v>
+        <v>850051.6715995824</v>
       </c>
     </row>
   </sheetData>
@@ -6860,28 +6860,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>429.8673909214615</v>
+        <v>498.3791729604812</v>
       </c>
       <c r="AB2" t="n">
-        <v>588.1635286695912</v>
+        <v>681.9043713818822</v>
       </c>
       <c r="AC2" t="n">
-        <v>532.0300269860617</v>
+        <v>616.8243752359908</v>
       </c>
       <c r="AD2" t="n">
-        <v>429867.3909214615</v>
+        <v>498379.1729604813</v>
       </c>
       <c r="AE2" t="n">
-        <v>588163.5286695912</v>
+        <v>681904.3713818822</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.476725085333126e-06</v>
+        <v>3.385490826844386e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.6244212962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>532030.0269860617</v>
+        <v>616824.3752359909</v>
       </c>
     </row>
   </sheetData>
@@ -7157,28 +7157,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1026.219462717384</v>
+        <v>1128.606397008153</v>
       </c>
       <c r="AB2" t="n">
-        <v>1404.118742497369</v>
+        <v>1544.209062986748</v>
       </c>
       <c r="AC2" t="n">
-        <v>1270.111620406452</v>
+        <v>1396.831917326324</v>
       </c>
       <c r="AD2" t="n">
-        <v>1026219.462717384</v>
+        <v>1128606.397008153</v>
       </c>
       <c r="AE2" t="n">
-        <v>1404118.742497369</v>
+        <v>1544209.062986748</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.02139891193797e-06</v>
+        <v>2.001927751732685e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.85648148148148</v>
       </c>
       <c r="AH2" t="n">
-        <v>1270111.620406452</v>
+        <v>1396831.917326324</v>
       </c>
     </row>
     <row r="3">
@@ -7263,28 +7263,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>697.6066976943239</v>
+        <v>777.2883915063512</v>
       </c>
       <c r="AB3" t="n">
-        <v>954.496260020799</v>
+        <v>1063.520268802648</v>
       </c>
       <c r="AC3" t="n">
-        <v>863.4004766083281</v>
+        <v>962.0193870081945</v>
       </c>
       <c r="AD3" t="n">
-        <v>697606.6976943238</v>
+        <v>777288.3915063512</v>
       </c>
       <c r="AE3" t="n">
-        <v>954496.260020799</v>
+        <v>1063520.268802648</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.289413269934298e-06</v>
+        <v>2.527232189464701e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.56076388888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>863400.4766083281</v>
+        <v>962019.3870081945</v>
       </c>
     </row>
     <row r="4">
@@ -7369,28 +7369,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>594.0575635800357</v>
+        <v>662.4293075799777</v>
       </c>
       <c r="AB4" t="n">
-        <v>812.815766460245</v>
+        <v>906.3650029494275</v>
       </c>
       <c r="AC4" t="n">
-        <v>735.2417705033718</v>
+        <v>819.8627991592047</v>
       </c>
       <c r="AD4" t="n">
-        <v>594057.5635800357</v>
+        <v>662429.3075799777</v>
       </c>
       <c r="AE4" t="n">
-        <v>812815.766460245</v>
+        <v>906365.0029494276</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.390002618580789e-06</v>
+        <v>2.724385922673647e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.65219907407408</v>
       </c>
       <c r="AH4" t="n">
-        <v>735241.7705033717</v>
+        <v>819862.7991592047</v>
       </c>
     </row>
     <row r="5">
@@ -7475,28 +7475,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>560.9172815457133</v>
+        <v>629.118433345063</v>
       </c>
       <c r="AB5" t="n">
-        <v>767.4717705348278</v>
+        <v>860.7875952491635</v>
       </c>
       <c r="AC5" t="n">
-        <v>694.2253419083783</v>
+        <v>778.6352352815603</v>
       </c>
       <c r="AD5" t="n">
-        <v>560917.2815457133</v>
+        <v>629118.433345063</v>
       </c>
       <c r="AE5" t="n">
-        <v>767471.7705348278</v>
+        <v>860787.5952491635</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.422748733749514e-06</v>
+        <v>2.78856785585519e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.38310185185185</v>
       </c>
       <c r="AH5" t="n">
-        <v>694225.3419083783</v>
+        <v>778635.2352815603</v>
       </c>
     </row>
     <row r="6">
@@ -7581,28 +7581,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>563.5581530472164</v>
+        <v>631.7593048465661</v>
       </c>
       <c r="AB6" t="n">
-        <v>771.0851274302124</v>
+        <v>864.4009521445481</v>
       </c>
       <c r="AC6" t="n">
-        <v>697.4938450930456</v>
+        <v>781.9037384662275</v>
       </c>
       <c r="AD6" t="n">
-        <v>563558.1530472164</v>
+        <v>631759.3048465662</v>
       </c>
       <c r="AE6" t="n">
-        <v>771085.1274302125</v>
+        <v>864400.9521445481</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.422188971097057e-06</v>
+        <v>2.787470728792258e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.38888888888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>697493.8450930456</v>
+        <v>781903.7384662275</v>
       </c>
     </row>
   </sheetData>
@@ -7878,28 +7878,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1199.836915056191</v>
+        <v>1304.56446959566</v>
       </c>
       <c r="AB2" t="n">
-        <v>1641.669800248744</v>
+        <v>1784.962660623271</v>
       </c>
       <c r="AC2" t="n">
-        <v>1484.991138611039</v>
+        <v>1614.608329504214</v>
       </c>
       <c r="AD2" t="n">
-        <v>1199836.915056191</v>
+        <v>1304564.46959566</v>
       </c>
       <c r="AE2" t="n">
-        <v>1641669.800248744</v>
+        <v>1784962.660623271</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.380240886552023e-07</v>
+        <v>1.803541805532687e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.91840277777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>1484991.138611039</v>
+        <v>1614608.329504214</v>
       </c>
     </row>
     <row r="3">
@@ -7984,28 +7984,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>794.3552442375766</v>
+        <v>864.2305973421552</v>
       </c>
       <c r="AB3" t="n">
-        <v>1086.871889645913</v>
+        <v>1182.478430446612</v>
       </c>
       <c r="AC3" t="n">
-        <v>983.1423619323846</v>
+        <v>1069.624348663687</v>
       </c>
       <c r="AD3" t="n">
-        <v>794355.2442375766</v>
+        <v>864230.5973421552</v>
       </c>
       <c r="AE3" t="n">
-        <v>1086871.889645913</v>
+        <v>1182478.430446612</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.219656182161866e-06</v>
+        <v>2.345036699493417e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.01215277777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>983142.3619323845</v>
+        <v>1069624.348663687</v>
       </c>
     </row>
     <row r="4">
@@ -8090,28 +8090,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>667.013465343246</v>
+        <v>748.3639244961347</v>
       </c>
       <c r="AB4" t="n">
-        <v>912.6372498398987</v>
+        <v>1023.944536981845</v>
       </c>
       <c r="AC4" t="n">
-        <v>825.536431609603</v>
+        <v>926.2207074874807</v>
       </c>
       <c r="AD4" t="n">
-        <v>667013.465343246</v>
+        <v>748363.9244961347</v>
       </c>
       <c r="AE4" t="n">
-        <v>912637.2498398987</v>
+        <v>1023944.536981845</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.328524674004266e-06</v>
+        <v>2.554358484208518e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.94444444444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>825536.431609603</v>
+        <v>926220.7074874807</v>
       </c>
     </row>
     <row r="5">
@@ -8196,28 +8196,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>606.31746590462</v>
+        <v>676.0221373000551</v>
       </c>
       <c r="AB5" t="n">
-        <v>829.5903056894595</v>
+        <v>924.9633122457624</v>
       </c>
       <c r="AC5" t="n">
-        <v>750.4153712517633</v>
+        <v>836.6861119191883</v>
       </c>
       <c r="AD5" t="n">
-        <v>606317.46590462</v>
+        <v>676022.1373000551</v>
       </c>
       <c r="AE5" t="n">
-        <v>829590.3056894594</v>
+        <v>924963.3122457623</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.385783467698708e-06</v>
+        <v>2.664450143272784e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.4525462962963</v>
       </c>
       <c r="AH5" t="n">
-        <v>750415.3712517633</v>
+        <v>836686.1119191883</v>
       </c>
     </row>
     <row r="6">
@@ -8302,28 +8302,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>588.3047392906258</v>
+        <v>658.0094106860608</v>
       </c>
       <c r="AB6" t="n">
-        <v>804.9444984707789</v>
+        <v>900.3175050270818</v>
       </c>
       <c r="AC6" t="n">
-        <v>728.1217252834261</v>
+        <v>814.392465950851</v>
       </c>
       <c r="AD6" t="n">
-        <v>588304.7392906258</v>
+        <v>658009.4106860609</v>
       </c>
       <c r="AE6" t="n">
-        <v>804944.4984707788</v>
+        <v>900317.5050270818</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.400262702885808e-06</v>
+        <v>2.692289413380989e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.33391203703704</v>
       </c>
       <c r="AH6" t="n">
-        <v>728121.7252834261</v>
+        <v>814392.465950851</v>
       </c>
     </row>
     <row r="7">
@@ -8408,28 +8408,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>591.3567314184504</v>
+        <v>661.0614028138856</v>
       </c>
       <c r="AB7" t="n">
-        <v>809.1203687444586</v>
+        <v>904.4933753007614</v>
       </c>
       <c r="AC7" t="n">
-        <v>731.8990563590564</v>
+        <v>818.1697970264812</v>
       </c>
       <c r="AD7" t="n">
-        <v>591356.7314184504</v>
+        <v>661061.4028138856</v>
       </c>
       <c r="AE7" t="n">
-        <v>809120.3687444585</v>
+        <v>904493.3753007614</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.399769092595339e-06</v>
+        <v>2.691340347354573e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.33680555555556</v>
       </c>
       <c r="AH7" t="n">
-        <v>731899.0563590564</v>
+        <v>818169.7970264812</v>
       </c>
     </row>
   </sheetData>
@@ -8705,28 +8705,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1627.917875340601</v>
+        <v>1748.675837533704</v>
       </c>
       <c r="AB2" t="n">
-        <v>2227.389055708963</v>
+        <v>2392.615427046865</v>
       </c>
       <c r="AC2" t="n">
-        <v>2014.810170392273</v>
+        <v>2164.267568746354</v>
       </c>
       <c r="AD2" t="n">
-        <v>1627917.875340601</v>
+        <v>1748675.837533704</v>
       </c>
       <c r="AE2" t="n">
-        <v>2227389.055708962</v>
+        <v>2392615.427046865</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.906853708191545e-07</v>
+        <v>1.472986875178013e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.37210648148148</v>
       </c>
       <c r="AH2" t="n">
-        <v>2014810.170392273</v>
+        <v>2164267.568746354</v>
       </c>
     </row>
     <row r="3">
@@ -8811,28 +8811,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>970.654553054812</v>
+        <v>1067.226714860625</v>
       </c>
       <c r="AB3" t="n">
-        <v>1328.092381746232</v>
+        <v>1460.226673992036</v>
       </c>
       <c r="AC3" t="n">
-        <v>1201.341108821736</v>
+        <v>1320.864689667244</v>
       </c>
       <c r="AD3" t="n">
-        <v>970654.553054812</v>
+        <v>1067226.714860625</v>
       </c>
       <c r="AE3" t="n">
-        <v>1328092.381746232</v>
+        <v>1460226.673992036</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.097780030441672e-06</v>
+        <v>2.045080934022928e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.9525462962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>1201341.108821736</v>
+        <v>1320864.689667244</v>
       </c>
     </row>
     <row r="4">
@@ -8917,28 +8917,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>822.3824061382803</v>
+        <v>906.9470533592954</v>
       </c>
       <c r="AB4" t="n">
-        <v>1125.219889029574</v>
+        <v>1240.9249700863</v>
       </c>
       <c r="AC4" t="n">
-        <v>1017.830482076623</v>
+        <v>1122.492832590397</v>
       </c>
       <c r="AD4" t="n">
-        <v>822382.4061382803</v>
+        <v>906947.0533592954</v>
       </c>
       <c r="AE4" t="n">
-        <v>1125219.889029574</v>
+        <v>1240924.9700863</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.217155734190814e-06</v>
+        <v>2.26746881588731e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.58391203703704</v>
       </c>
       <c r="AH4" t="n">
-        <v>1017830.482076623</v>
+        <v>1122492.832590397</v>
       </c>
     </row>
     <row r="5">
@@ -9023,28 +9023,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>740.822446258083</v>
+        <v>825.3017526245267</v>
       </c>
       <c r="AB5" t="n">
-        <v>1013.625953750004</v>
+        <v>1129.214267684533</v>
       </c>
       <c r="AC5" t="n">
-        <v>916.886915357064</v>
+        <v>1021.443642838899</v>
       </c>
       <c r="AD5" t="n">
-        <v>740822.446258083</v>
+        <v>825301.7526245266</v>
       </c>
       <c r="AE5" t="n">
-        <v>1013625.953750004</v>
+        <v>1129214.267684533</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.281846248595006e-06</v>
+        <v>2.38798233767812e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.95023148148148</v>
       </c>
       <c r="AH5" t="n">
-        <v>916886.915357064</v>
+        <v>1021443.642838899</v>
       </c>
     </row>
     <row r="6">
@@ -9129,28 +9129,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>690.9432628594705</v>
+        <v>763.5003954956877</v>
       </c>
       <c r="AB6" t="n">
-        <v>945.3790545097553</v>
+        <v>1044.654924377405</v>
       </c>
       <c r="AC6" t="n">
-        <v>855.1534043951798</v>
+        <v>944.9545245772192</v>
       </c>
       <c r="AD6" t="n">
-        <v>690943.2628594704</v>
+        <v>763500.3954956877</v>
       </c>
       <c r="AE6" t="n">
-        <v>945379.0545097553</v>
+        <v>1044654.924377405</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.324937966045916e-06</v>
+        <v>2.468258938936483e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.55960648148148</v>
       </c>
       <c r="AH6" t="n">
-        <v>855153.4043951798</v>
+        <v>944954.5245772193</v>
       </c>
     </row>
     <row r="7">
@@ -9235,28 +9235,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>655.4852526145621</v>
+        <v>727.8717930501872</v>
       </c>
       <c r="AB7" t="n">
-        <v>896.8638405956623</v>
+        <v>995.9062986884646</v>
       </c>
       <c r="AC7" t="n">
-        <v>811.2684144055177</v>
+        <v>900.8583993049059</v>
       </c>
       <c r="AD7" t="n">
-        <v>655485.2526145622</v>
+        <v>727871.7930501872</v>
       </c>
       <c r="AE7" t="n">
-        <v>896863.8405956622</v>
+        <v>995906.2986884647</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.350401253630545e-06</v>
+        <v>2.515695112407333e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.34259259259259</v>
       </c>
       <c r="AH7" t="n">
-        <v>811268.4144055176</v>
+        <v>900858.3993049059</v>
       </c>
     </row>
     <row r="8">
@@ -9341,28 +9341,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>643.8142561902506</v>
+        <v>716.2007966258757</v>
       </c>
       <c r="AB8" t="n">
-        <v>880.895068399896</v>
+        <v>979.9375264926985</v>
       </c>
       <c r="AC8" t="n">
-        <v>796.8236794158028</v>
+        <v>886.4136643151911</v>
       </c>
       <c r="AD8" t="n">
-        <v>643814.2561902506</v>
+        <v>716200.7966258756</v>
       </c>
       <c r="AE8" t="n">
-        <v>880895.068399896</v>
+        <v>979937.5264926985</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.357600852614972e-06</v>
+        <v>2.529107419251482e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.2818287037037</v>
       </c>
       <c r="AH8" t="n">
-        <v>796823.6794158027</v>
+        <v>886413.6643151911</v>
       </c>
     </row>
     <row r="9">
@@ -9447,28 +9447,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>646.3125713368494</v>
+        <v>718.6991117724741</v>
       </c>
       <c r="AB9" t="n">
-        <v>884.3133734013577</v>
+        <v>983.3558314941602</v>
       </c>
       <c r="AC9" t="n">
-        <v>799.915746185546</v>
+        <v>889.5057310849344</v>
       </c>
       <c r="AD9" t="n">
-        <v>646312.5713368494</v>
+        <v>718699.1117724741</v>
       </c>
       <c r="AE9" t="n">
-        <v>884313.3734013577</v>
+        <v>983355.8314941601</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.357389099703665e-06</v>
+        <v>2.528712939638419e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.28472222222222</v>
       </c>
       <c r="AH9" t="n">
-        <v>799915.746185546</v>
+        <v>889505.7310849344</v>
       </c>
     </row>
   </sheetData>
@@ -9744,28 +9744,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>864.7154180900492</v>
+        <v>953.5939451483499</v>
       </c>
       <c r="AB2" t="n">
-        <v>1183.141783582662</v>
+        <v>1304.74930534771</v>
       </c>
       <c r="AC2" t="n">
-        <v>1070.224392307455</v>
+        <v>1180.225862872475</v>
       </c>
       <c r="AD2" t="n">
-        <v>864715.4180900492</v>
+        <v>953593.94514835</v>
       </c>
       <c r="AE2" t="n">
-        <v>1183141.783582662</v>
+        <v>1304749.30534771</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.116499406356356e-06</v>
+        <v>2.238020106860593e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.84375</v>
       </c>
       <c r="AH2" t="n">
-        <v>1070224.392307455</v>
+        <v>1180225.862872475</v>
       </c>
     </row>
     <row r="3">
@@ -9850,28 +9850,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>612.0058705485518</v>
+        <v>678.6435201371854</v>
       </c>
       <c r="AB3" t="n">
-        <v>837.3734318779883</v>
+        <v>928.5500038907727</v>
       </c>
       <c r="AC3" t="n">
-        <v>757.4556868005452</v>
+        <v>839.9304947475522</v>
       </c>
       <c r="AD3" t="n">
-        <v>612005.8705485518</v>
+        <v>678643.5201371855</v>
       </c>
       <c r="AE3" t="n">
-        <v>837373.4318779883</v>
+        <v>928550.0038907727</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.367003043360855e-06</v>
+        <v>2.740153984645063e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.12384259259259</v>
       </c>
       <c r="AH3" t="n">
-        <v>757455.6868005452</v>
+        <v>839930.4947475522</v>
       </c>
     </row>
     <row r="4">
@@ -9956,28 +9956,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>533.674067745019</v>
+        <v>600.2263764790811</v>
       </c>
       <c r="AB4" t="n">
-        <v>730.1964035269499</v>
+        <v>821.2562084175368</v>
       </c>
       <c r="AC4" t="n">
-        <v>660.5074836114261</v>
+        <v>742.8766685264942</v>
       </c>
       <c r="AD4" t="n">
-        <v>533674.067745019</v>
+        <v>600226.3764790811</v>
       </c>
       <c r="AE4" t="n">
-        <v>730196.4035269499</v>
+        <v>821256.2084175368</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.443688998996205e-06</v>
+        <v>2.893870779879038e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.47858796296296</v>
       </c>
       <c r="AH4" t="n">
-        <v>660507.4836114261</v>
+        <v>742876.6685264942</v>
       </c>
     </row>
     <row r="5">
@@ -10062,28 +10062,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>534.158236836229</v>
+        <v>600.7105455702911</v>
       </c>
       <c r="AB5" t="n">
-        <v>730.8588650375763</v>
+        <v>821.9186699281631</v>
       </c>
       <c r="AC5" t="n">
-        <v>661.1067207252488</v>
+        <v>743.4759056403169</v>
       </c>
       <c r="AD5" t="n">
-        <v>534158.236836229</v>
+        <v>600710.5455702911</v>
       </c>
       <c r="AE5" t="n">
-        <v>730858.8650375763</v>
+        <v>821918.6699281632</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.445178046678445e-06</v>
+        <v>2.896855572019503e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.46701388888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>661106.7207252488</v>
+        <v>743475.9056403169</v>
       </c>
     </row>
   </sheetData>
@@ -10359,28 +10359,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>648.0297922451407</v>
+        <v>722.3759430926526</v>
       </c>
       <c r="AB2" t="n">
-        <v>886.6629508065217</v>
+        <v>988.3866343167779</v>
       </c>
       <c r="AC2" t="n">
-        <v>802.0410832208138</v>
+        <v>894.0564011469377</v>
       </c>
       <c r="AD2" t="n">
-        <v>648029.7922451406</v>
+        <v>722375.9430926526</v>
       </c>
       <c r="AE2" t="n">
-        <v>886662.9508065217</v>
+        <v>988386.6343167779</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.28579733858023e-06</v>
+        <v>2.689968443396998e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.42592592592593</v>
       </c>
       <c r="AH2" t="n">
-        <v>802041.0832208138</v>
+        <v>894056.4011469376</v>
       </c>
     </row>
     <row r="3">
@@ -10465,28 +10465,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>487.9964096515986</v>
+        <v>551.867903692831</v>
       </c>
       <c r="AB3" t="n">
-        <v>667.6982165674798</v>
+        <v>755.0900125261396</v>
       </c>
       <c r="AC3" t="n">
-        <v>603.9740358986113</v>
+        <v>683.0252815061328</v>
       </c>
       <c r="AD3" t="n">
-        <v>487996.4096515986</v>
+        <v>551867.9036928309</v>
       </c>
       <c r="AE3" t="n">
-        <v>667698.2165674798</v>
+        <v>755090.0125261396</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.47544841914194e-06</v>
+        <v>3.086730364315619e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.69849537037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>603974.0358986113</v>
+        <v>683025.2815061328</v>
       </c>
     </row>
     <row r="4">
@@ -10571,28 +10571,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>490.8456649951835</v>
+        <v>554.7171590364159</v>
       </c>
       <c r="AB4" t="n">
-        <v>671.5966934288467</v>
+        <v>758.9884893875069</v>
       </c>
       <c r="AC4" t="n">
-        <v>607.5004475998762</v>
+        <v>686.5516932073976</v>
       </c>
       <c r="AD4" t="n">
-        <v>490845.6649951835</v>
+        <v>554717.1590364159</v>
       </c>
       <c r="AE4" t="n">
-        <v>671596.6934288468</v>
+        <v>758988.4893875069</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.475925678860246e-06</v>
+        <v>3.087728821493144e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.69560185185185</v>
       </c>
       <c r="AH4" t="n">
-        <v>607500.4475998762</v>
+        <v>686551.6932073976</v>
       </c>
     </row>
   </sheetData>
@@ -18681,28 +18681,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>504.3277463328891</v>
+        <v>566.0053984048247</v>
       </c>
       <c r="AB2" t="n">
-        <v>690.0434719025462</v>
+        <v>774.4335564933376</v>
       </c>
       <c r="AC2" t="n">
-        <v>624.186691426262</v>
+        <v>700.5227047859357</v>
       </c>
       <c r="AD2" t="n">
-        <v>504327.7463328891</v>
+        <v>566005.3984048248</v>
       </c>
       <c r="AE2" t="n">
-        <v>690043.4719025462</v>
+        <v>774433.5564933376</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.426370272445849e-06</v>
+        <v>3.100723246708659e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.52025462962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>624186.691426262</v>
+        <v>700522.7047859357</v>
       </c>
     </row>
     <row r="3">
@@ -18787,28 +18787,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>456.8245474355444</v>
+        <v>528.5115621466591</v>
       </c>
       <c r="AB3" t="n">
-        <v>625.0474994779705</v>
+        <v>723.1328356136011</v>
       </c>
       <c r="AC3" t="n">
-        <v>565.3938433874675</v>
+        <v>654.1180527059473</v>
       </c>
       <c r="AD3" t="n">
-        <v>456824.5474355444</v>
+        <v>528511.5621466591</v>
       </c>
       <c r="AE3" t="n">
-        <v>625047.4994779705</v>
+        <v>723132.835613601</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.489502569798512e-06</v>
+        <v>3.237963755573062e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.98784722222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>565393.8433874676</v>
+        <v>654118.0527059473</v>
       </c>
     </row>
   </sheetData>
@@ -19084,28 +19084,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>420.3533555086795</v>
+        <v>486.7694046953713</v>
       </c>
       <c r="AB2" t="n">
-        <v>575.1460056882033</v>
+        <v>666.0193742547312</v>
       </c>
       <c r="AC2" t="n">
-        <v>520.2548781278093</v>
+        <v>602.4554199399216</v>
       </c>
       <c r="AD2" t="n">
-        <v>420353.3555086795</v>
+        <v>486769.4046953713</v>
       </c>
       <c r="AE2" t="n">
-        <v>575146.0056882034</v>
+        <v>666019.3742547312</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.440252283608922e-06</v>
+        <v>3.425678890839493e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.30729166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>520254.8781278093</v>
+        <v>602455.4199399216</v>
       </c>
     </row>
   </sheetData>
@@ -19381,28 +19381,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1118.016170223643</v>
+        <v>1210.116969286852</v>
       </c>
       <c r="AB2" t="n">
-        <v>1529.719047492349</v>
+        <v>1655.735423971119</v>
       </c>
       <c r="AC2" t="n">
-        <v>1383.724808573846</v>
+        <v>1497.714358946577</v>
       </c>
       <c r="AD2" t="n">
-        <v>1118016.170223643</v>
+        <v>1210116.969286852</v>
       </c>
       <c r="AE2" t="n">
-        <v>1529719.047492349</v>
+        <v>1655735.423971119</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.779652609519115e-07</v>
+        <v>1.89781806085939e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.38888888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>1383724.808573846</v>
+        <v>1497714.358946577</v>
       </c>
     </row>
     <row r="3">
@@ -19487,28 +19487,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>740.561820860129</v>
+        <v>821.1392741136325</v>
       </c>
       <c r="AB3" t="n">
-        <v>1013.269354582542</v>
+        <v>1123.518980950336</v>
       </c>
       <c r="AC3" t="n">
-        <v>916.5643495136549</v>
+        <v>1016.291906277229</v>
       </c>
       <c r="AD3" t="n">
-        <v>740561.8208601291</v>
+        <v>821139.2741136325</v>
       </c>
       <c r="AE3" t="n">
-        <v>1013269.354582542</v>
+        <v>1123518.980950336</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.252936631972318e-06</v>
+        <v>2.431421507707649e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.79224537037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>916564.3495136548</v>
+        <v>1016291.906277229</v>
       </c>
     </row>
     <row r="4">
@@ -19593,28 +19593,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>632.8942759034237</v>
+        <v>702.033813710345</v>
       </c>
       <c r="AB4" t="n">
-        <v>865.9538696159294</v>
+        <v>960.5536354644936</v>
       </c>
       <c r="AC4" t="n">
-        <v>783.3084476736738</v>
+        <v>868.8797446412563</v>
       </c>
       <c r="AD4" t="n">
-        <v>632894.2759034237</v>
+        <v>702033.8137103451</v>
       </c>
       <c r="AE4" t="n">
-        <v>865953.8696159294</v>
+        <v>960553.6354644937</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.357186454748387e-06</v>
+        <v>2.63372644061829e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.81134259259259</v>
       </c>
       <c r="AH4" t="n">
-        <v>783308.4476736737</v>
+        <v>868879.7446412563</v>
       </c>
     </row>
     <row r="5">
@@ -19699,28 +19699,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>579.0668221808054</v>
+        <v>648.0357677871347</v>
       </c>
       <c r="AB5" t="n">
-        <v>792.3047727329831</v>
+        <v>886.6711268067004</v>
       </c>
       <c r="AC5" t="n">
-        <v>716.6883172300791</v>
+        <v>802.0484789150104</v>
       </c>
       <c r="AD5" t="n">
-        <v>579066.8221808054</v>
+        <v>648035.7677871346</v>
       </c>
       <c r="AE5" t="n">
-        <v>792304.7727329831</v>
+        <v>886671.1268067004</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.407649572999715e-06</v>
+        <v>2.731654067547937e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.38599537037037</v>
       </c>
       <c r="AH5" t="n">
-        <v>716688.3172300791</v>
+        <v>802048.4789150103</v>
       </c>
     </row>
     <row r="6">
@@ -19805,28 +19805,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>575.541430111407</v>
+        <v>644.5103757177362</v>
       </c>
       <c r="AB6" t="n">
-        <v>787.4811757743107</v>
+        <v>881.8475298480278</v>
       </c>
       <c r="AC6" t="n">
-        <v>712.3250775951815</v>
+        <v>797.6852392801129</v>
       </c>
       <c r="AD6" t="n">
-        <v>575541.430111407</v>
+        <v>644510.3757177362</v>
       </c>
       <c r="AE6" t="n">
-        <v>787481.1757743107</v>
+        <v>881847.5298480277</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.410640800645787e-06</v>
+        <v>2.737458778694151e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.36284722222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>712325.0775951815</v>
+        <v>797685.2392801129</v>
       </c>
     </row>
   </sheetData>
@@ -20102,28 +20102,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1508.364384234113</v>
+        <v>1628.147350420786</v>
       </c>
       <c r="AB2" t="n">
-        <v>2063.810694849281</v>
+        <v>2227.703033637398</v>
       </c>
       <c r="AC2" t="n">
-        <v>1866.843498709368</v>
+        <v>2015.094182707889</v>
       </c>
       <c r="AD2" t="n">
-        <v>1508364.384234113</v>
+        <v>1628147.350420786</v>
       </c>
       <c r="AE2" t="n">
-        <v>2063810.694849282</v>
+        <v>2227703.033637398</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.251257534702619e-07</v>
+        <v>1.548259551960937e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.71817129629629</v>
       </c>
       <c r="AH2" t="n">
-        <v>1866843.498709368</v>
+        <v>2015094.182707889</v>
       </c>
     </row>
     <row r="3">
@@ -20208,28 +20208,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>924.269605685767</v>
+        <v>1008.177420614638</v>
       </c>
       <c r="AB3" t="n">
-        <v>1264.626450396452</v>
+        <v>1379.432824533671</v>
       </c>
       <c r="AC3" t="n">
-        <v>1143.932276884984</v>
+        <v>1247.781691806306</v>
       </c>
       <c r="AD3" t="n">
-        <v>924269.605685767</v>
+        <v>1008177.420614638</v>
       </c>
       <c r="AE3" t="n">
-        <v>1264626.450396452</v>
+        <v>1379432.824533671</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.127301771738806e-06</v>
+        <v>2.115260284504013e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.70081018518519</v>
       </c>
       <c r="AH3" t="n">
-        <v>1143932.276884984</v>
+        <v>1247781.691806306</v>
       </c>
     </row>
     <row r="4">
@@ -20314,28 +20314,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>786.7647829772493</v>
+        <v>858.6005158559755</v>
       </c>
       <c r="AB4" t="n">
-        <v>1076.486285682016</v>
+        <v>1174.775104575556</v>
       </c>
       <c r="AC4" t="n">
-        <v>973.7479454345151</v>
+        <v>1062.656217402079</v>
       </c>
       <c r="AD4" t="n">
-        <v>786764.7829772492</v>
+        <v>858600.5158559754</v>
       </c>
       <c r="AE4" t="n">
-        <v>1076486.285682016</v>
+        <v>1174775.104575556</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.243400135938432e-06</v>
+        <v>2.333106352916165e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.421875</v>
       </c>
       <c r="AH4" t="n">
-        <v>973747.9454345151</v>
+        <v>1062656.217402079</v>
       </c>
     </row>
     <row r="5">
@@ -20420,28 +20420,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>708.7464468598704</v>
+        <v>780.6674310846173</v>
       </c>
       <c r="AB5" t="n">
-        <v>969.7381562801482</v>
+        <v>1068.143619826337</v>
       </c>
       <c r="AC5" t="n">
-        <v>877.1877076808207</v>
+        <v>966.2014918990964</v>
       </c>
       <c r="AD5" t="n">
-        <v>708746.4468598703</v>
+        <v>780667.4310846173</v>
       </c>
       <c r="AE5" t="n">
-        <v>969738.1562801482</v>
+        <v>1068143.619826337</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.30579967053584e-06</v>
+        <v>2.450192354743201e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.8287037037037</v>
       </c>
       <c r="AH5" t="n">
-        <v>877187.7076808207</v>
+        <v>966201.4918990964</v>
       </c>
     </row>
     <row r="6">
@@ -20526,28 +20526,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>659.916093120621</v>
+        <v>731.6664851447756</v>
       </c>
       <c r="AB6" t="n">
-        <v>902.926312050939</v>
+        <v>1001.09836382228</v>
       </c>
       <c r="AC6" t="n">
-        <v>816.752292093835</v>
+        <v>905.5549410294594</v>
       </c>
       <c r="AD6" t="n">
-        <v>659916.0931206209</v>
+        <v>731666.4851447756</v>
       </c>
       <c r="AE6" t="n">
-        <v>902926.3120509391</v>
+        <v>1001098.36382228</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.346687646157409e-06</v>
+        <v>2.526914234469045e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.46990740740741</v>
       </c>
       <c r="AH6" t="n">
-        <v>816752.292093835</v>
+        <v>905554.9410294595</v>
       </c>
     </row>
     <row r="7">
@@ -20632,28 +20632,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>630.0370371529897</v>
+        <v>701.7874291771443</v>
       </c>
       <c r="AB7" t="n">
-        <v>862.0444695051085</v>
+        <v>960.2165212764501</v>
       </c>
       <c r="AC7" t="n">
-        <v>779.7721552225521</v>
+        <v>868.5748041581767</v>
       </c>
       <c r="AD7" t="n">
-        <v>630037.0371529897</v>
+        <v>701787.4291771443</v>
       </c>
       <c r="AE7" t="n">
-        <v>862044.4695051085</v>
+        <v>960216.52127645</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.367718798108974e-06</v>
+        <v>2.566376924563016e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.29340277777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>779772.1552225521</v>
+        <v>868574.8041581766</v>
       </c>
     </row>
     <row r="8">
@@ -20738,28 +20738,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>630.3283496102098</v>
+        <v>702.0787416343644</v>
       </c>
       <c r="AB8" t="n">
-        <v>862.4430560608757</v>
+        <v>960.6151078322168</v>
       </c>
       <c r="AC8" t="n">
-        <v>780.1327012368565</v>
+        <v>868.935350172481</v>
       </c>
       <c r="AD8" t="n">
-        <v>630328.3496102098</v>
+        <v>702078.7416343644</v>
       </c>
       <c r="AE8" t="n">
-        <v>862443.0560608758</v>
+        <v>960615.1078322169</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.369640426206071e-06</v>
+        <v>2.569982652591907e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.27604166666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>780132.7012368565</v>
+        <v>868935.350172481</v>
       </c>
     </row>
   </sheetData>
@@ -21035,28 +21035,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>408.9025650825297</v>
+        <v>482.0987679338253</v>
       </c>
       <c r="AB2" t="n">
-        <v>559.4785290539249</v>
+        <v>659.6288029836326</v>
       </c>
       <c r="AC2" t="n">
-        <v>506.0826834740649</v>
+        <v>596.6747558217135</v>
       </c>
       <c r="AD2" t="n">
-        <v>408902.5650825297</v>
+        <v>482098.7679338253</v>
       </c>
       <c r="AE2" t="n">
-        <v>559478.529053925</v>
+        <v>659628.8029836325</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.339118366464085e-06</v>
+        <v>3.349033409461001e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.82060185185185</v>
       </c>
       <c r="AH2" t="n">
-        <v>506082.6834740649</v>
+        <v>596674.7558217135</v>
       </c>
     </row>
   </sheetData>
@@ -21332,28 +21332,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>716.1465613784858</v>
+        <v>802.487455464086</v>
       </c>
       <c r="AB2" t="n">
-        <v>979.8633194345294</v>
+        <v>1097.998739813862</v>
       </c>
       <c r="AC2" t="n">
-        <v>886.3465394745033</v>
+        <v>993.2072811369367</v>
       </c>
       <c r="AD2" t="n">
-        <v>716146.5613784858</v>
+        <v>802487.455464086</v>
       </c>
       <c r="AE2" t="n">
-        <v>979863.3194345294</v>
+        <v>1097998.739813862</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.223611518732813e-06</v>
+        <v>2.519762959690551e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.90046296296296</v>
       </c>
       <c r="AH2" t="n">
-        <v>886346.5394745033</v>
+        <v>993207.2811369366</v>
       </c>
     </row>
     <row r="3">
@@ -21438,28 +21438,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>516.2206745674916</v>
+        <v>581.1043564135491</v>
       </c>
       <c r="AB3" t="n">
-        <v>706.315900992093</v>
+        <v>795.0926169598894</v>
       </c>
       <c r="AC3" t="n">
-        <v>638.9061027220001</v>
+        <v>719.2100935167333</v>
       </c>
       <c r="AD3" t="n">
-        <v>516220.6745674916</v>
+        <v>581104.3564135492</v>
       </c>
       <c r="AE3" t="n">
-        <v>706315.900992093</v>
+        <v>795092.6169598894</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.45012132855685e-06</v>
+        <v>2.986210864162911e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.73032407407407</v>
       </c>
       <c r="AH3" t="n">
-        <v>638906.1027220001</v>
+        <v>719210.0935167333</v>
       </c>
     </row>
     <row r="4">
@@ -21544,28 +21544,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>504.2011537870976</v>
+        <v>569.0848356331552</v>
       </c>
       <c r="AB4" t="n">
-        <v>689.8702623965254</v>
+        <v>778.6469783643215</v>
       </c>
       <c r="AC4" t="n">
-        <v>624.0300127923945</v>
+        <v>704.3340035871278</v>
       </c>
       <c r="AD4" t="n">
-        <v>504201.1537870976</v>
+        <v>569084.8356331552</v>
       </c>
       <c r="AE4" t="n">
-        <v>689870.2623965254</v>
+        <v>778646.9783643215</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.466875882359044e-06</v>
+        <v>3.020713239655935e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.59722222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>624030.0127923945</v>
+        <v>704334.0035871278</v>
       </c>
     </row>
   </sheetData>
@@ -21841,28 +21841,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>949.3422341711961</v>
+        <v>1039.262100600793</v>
       </c>
       <c r="AB2" t="n">
-        <v>1298.931926816518</v>
+        <v>1421.964255050023</v>
       </c>
       <c r="AC2" t="n">
-        <v>1174.963686783558</v>
+        <v>1286.253982287414</v>
       </c>
       <c r="AD2" t="n">
-        <v>949342.2341711961</v>
+        <v>1039262.100600793</v>
       </c>
       <c r="AE2" t="n">
-        <v>1298931.926816518</v>
+        <v>1421964.255050023</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.067705316783093e-06</v>
+        <v>2.115320809676715e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.33854166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1174963.686783558</v>
+        <v>1286253.982287414</v>
       </c>
     </row>
     <row r="3">
@@ -21947,28 +21947,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>655.9592027206621</v>
+        <v>723.441795347283</v>
       </c>
       <c r="AB3" t="n">
-        <v>897.5123200400313</v>
+        <v>989.844980393646</v>
       </c>
       <c r="AC3" t="n">
-        <v>811.8550038818629</v>
+        <v>895.375564721031</v>
       </c>
       <c r="AD3" t="n">
-        <v>655959.2027206621</v>
+        <v>723441.795347283</v>
       </c>
       <c r="AE3" t="n">
-        <v>897512.3200400313</v>
+        <v>989844.9803936459</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.325971822321752e-06</v>
+        <v>2.626994307055576e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.34953703703704</v>
       </c>
       <c r="AH3" t="n">
-        <v>811855.0038818629</v>
+        <v>895375.564721031</v>
       </c>
     </row>
     <row r="4">
@@ -22053,28 +22053,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>558.9343077390315</v>
+        <v>626.5021517116728</v>
       </c>
       <c r="AB4" t="n">
-        <v>764.7585782898957</v>
+        <v>857.2078832961596</v>
       </c>
       <c r="AC4" t="n">
-        <v>691.7710929233132</v>
+        <v>775.3971660131937</v>
       </c>
       <c r="AD4" t="n">
-        <v>558934.3077390315</v>
+        <v>626502.1517116728</v>
       </c>
       <c r="AE4" t="n">
-        <v>764758.5782898957</v>
+        <v>857207.8832961596</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.42207888486934e-06</v>
+        <v>2.817400092404976e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.5162037037037</v>
       </c>
       <c r="AH4" t="n">
-        <v>691771.0929233131</v>
+        <v>775397.1660131937</v>
       </c>
     </row>
     <row r="5">
@@ -22159,28 +22159,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>547.0217313374262</v>
+        <v>614.4189831094753</v>
       </c>
       <c r="AB5" t="n">
-        <v>748.4592657114398</v>
+        <v>840.6751589428563</v>
       </c>
       <c r="AC5" t="n">
-        <v>677.0273638611162</v>
+        <v>760.4423016683454</v>
       </c>
       <c r="AD5" t="n">
-        <v>547021.7313374262</v>
+        <v>614418.9831094753</v>
       </c>
       <c r="AE5" t="n">
-        <v>748459.2657114398</v>
+        <v>840675.1589428564</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.434134717803754e-06</v>
+        <v>2.841284917068946e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.42071759259259</v>
       </c>
       <c r="AH5" t="n">
-        <v>677027.3638611162</v>
+        <v>760442.3016683455</v>
       </c>
     </row>
   </sheetData>
